--- a/data/trans_dic/KIDM_C_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_1_R-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>11,22%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,04</t>
+          <t>5,97; 26,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 11,36</t>
+          <t>1,82; 18,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,71</t>
+          <t>6,06; 20,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 26,72</t>
+          <t>1,05; 5,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 18,98</t>
+          <t>3,1; 11,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 20,34</t>
+          <t>2,46; 6,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_C_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_1_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,97; 26,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 18,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 20,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>6,9%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,04</t>
+          <t>3,82; 14,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 11,36</t>
+          <t>1,3; 10,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,71</t>
+          <t>3,87; 11,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,04</t>
+          <t>0,52; 4,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 10,6</t>
+          <t>3,75; 14,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,68</t>
+          <t>2,51; 7,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 7,57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 11,08</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,57; 7,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/KIDM_C_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_1_R-Edad-trans_dic.xlsx
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 14,73</t>
+          <t>3,96; 15,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,93</t>
+          <t>1,31; 11,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 11,51</t>
+          <t>3,91; 11,44</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,9</t>
+          <t>0,56; 4,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 14,0</t>
+          <t>3,39; 13,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,49</t>
+          <t>2,23; 7,52</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 7,57</t>
+          <t>2,35; 6,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 11,08</t>
+          <t>3,69; 11,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,93</t>
+          <t>3,48; 7,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_C_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 15,28</t>
+          <t>1,21; 9,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 11,51</t>
+          <t>4,09; 15,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 11,44</t>
+          <t>3,99; 11,52</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,76</t>
+          <t>2,23; 10,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 13,86</t>
+          <t>0,48; 4,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,52</t>
+          <t>1,91; 6,06</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,9</t>
+          <t>2,51; 8,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,33</t>
+          <t>2,31; 6,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,62</t>
+          <t>3,12; 6,91</t>
         </is>
       </c>
     </row>
